--- a/Data/habitacionesDatah4.xlsx
+++ b/Data/habitacionesDatah4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7892D09-A29E-D344-ADD7-3990CFED87B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CC7A31-6D5D-7746-B089-740F2C5AB163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E955423F-AA58-ED46-A17F-96122CEE6861}"/>
+    <workbookView xWindow="14420" yWindow="500" windowWidth="14380" windowHeight="15520" xr2:uid="{E955423F-AA58-ED46-A17F-96122CEE6861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -445,10 +448,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>101</v>
+        <v>10004101</v>
       </c>
       <c r="B2">
-        <v>10101</v>
+        <v>1000410101</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -459,10 +462,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>102</v>
+        <v>10004102</v>
       </c>
       <c r="B3">
-        <v>10102</v>
+        <v>1000410102</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -473,10 +476,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>103</v>
+        <v>10004103</v>
       </c>
       <c r="B4">
-        <v>10103</v>
+        <v>1000410103</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -487,10 +490,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>104</v>
+        <v>10004104</v>
       </c>
       <c r="B5">
-        <v>10104</v>
+        <v>1000410104</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -501,10 +504,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>105</v>
+        <v>10004105</v>
       </c>
       <c r="B6">
-        <v>10105</v>
+        <v>1000410105</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -515,10 +518,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>106</v>
+        <v>10004106</v>
       </c>
       <c r="B7">
-        <v>10106</v>
+        <v>1000410106</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -529,10 +532,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>107</v>
+        <v>10004107</v>
       </c>
       <c r="B8">
-        <v>10107</v>
+        <v>1000410107</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -543,10 +546,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>108</v>
+        <v>10004108</v>
       </c>
       <c r="B9">
-        <v>10108</v>
+        <v>1000410108</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -557,10 +560,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>109</v>
+        <v>10004109</v>
       </c>
       <c r="B10">
-        <v>10109</v>
+        <v>1000410109</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -571,10 +574,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>110</v>
+        <v>10004110</v>
       </c>
       <c r="B11">
-        <v>10110</v>
+        <v>1000410110</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
